--- a/src/pages/quota.xlsx
+++ b/src/pages/quota.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -391,136 +391,250 @@
         <v>name</v>
       </c>
       <c r="D1" t="str">
+        <v>identity_txt</v>
+      </c>
+      <c r="E1" t="str">
         <v>tags</v>
+      </c>
+      <c r="F1" t="str">
+        <v>related_profile</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>西安市</v>
+        <v>东莞市</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>30153</v>
       </c>
       <c r="C2" t="str">
-        <v>小张胖了</v>
+        <v>Cc🤡</v>
+      </c>
+      <c r="D2" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E2" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/59f1b06b11be105e88264d0b</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>成都市</v>
+        <v>杭州市</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2138</v>
       </c>
       <c r="C3" t="str">
-        <v>Double</v>
+        <v>抠牙小妹</v>
+      </c>
+      <c r="D3" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E3" t="str">
+        <v>美妆护肤|家居生活</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5b548a046b58b710648fef56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>佛山市</v>
+        <v>深圳市</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="C4" t="str">
-        <v>4064转依浪依</v>
+        <v>小鱼儿</v>
+      </c>
+      <c r="D4" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E4" t="str">
+        <v>美妆护肤|美食|家居生活</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5d53f367000000001203b063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>牡丹江市</v>
+        <v>朝阳区</v>
       </c>
       <c r="B5">
-        <v>8306</v>
+        <v>64628</v>
       </c>
       <c r="C5" t="str">
-        <v>怕生的猫</v>
+        <v>于念慈</v>
+      </c>
+      <c r="D5" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E5" t="str">
+        <v>美妆护肤|旅行探店|影视</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5737166082ec391b84ee54b3</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <v>长沙市</v>
+      </c>
       <c r="B6">
-        <v>12680</v>
+        <v>2226</v>
       </c>
       <c r="C6" t="str">
-        <v>蹄仔🦕</v>
+        <v>学测星星ღヘ</v>
+      </c>
+      <c r="D6" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E6" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5937eb9c50c4b4058e10a939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>广州市</v>
+        <v>大连市</v>
       </c>
       <c r="B7">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="C7" t="str">
-        <v>朝歌行</v>
+        <v>南歌</v>
+      </c>
+      <c r="D7" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E7" t="str">
+        <v>美妆护肤|时尚穿搭</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/58b3f6e182ec391837be6cf7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>河东区</v>
+        <v>齐齐哈尔市</v>
       </c>
       <c r="B8">
-        <v>4612</v>
+        <v>952</v>
       </c>
       <c r="C8" t="str">
-        <v>齐璐</v>
+        <v>小桦奇</v>
+      </c>
+      <c r="D8" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E8" t="str">
+        <v>美妆护肤|时尚穿搭|家居生活</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5d2ee0e5000000001601df2a</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>闵行区</v>
+        <v>马鞍山市</v>
       </c>
       <c r="B9">
-        <v>10246</v>
+        <v>1381</v>
       </c>
       <c r="C9" t="str">
-        <v>光长肉了啊</v>
+        <v> 🍃</v>
+      </c>
+      <c r="D9" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E9" t="str">
+        <v>母婴亲子</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5bf29c57292fe90001ceb450</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>南京市</v>
+        <v>广州市</v>
       </c>
       <c r="B10">
-        <v>1577</v>
+        <v>1072</v>
       </c>
       <c r="C10" t="str">
-        <v>木南</v>
+        <v> （</v>
+      </c>
+      <c r="D10" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E10" t="str">
+        <v>美妆护肤|时尚穿搭|健康养生</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5c9978980000000011006ecd</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>通州区</v>
+        <v>武汉市</v>
       </c>
       <c r="B11">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="C11" t="str">
-        <v>住在124号菠萝屋</v>
+        <v>啊啊啊啊牛啊</v>
+      </c>
+      <c r="D11" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E11" t="str">
+        <v>美妆护肤|旅行探店|美食</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5b4825544eacab6dbdd6e637</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>黄浦区</v>
+        <v>成都市</v>
       </c>
       <c r="B12">
-        <v>119064</v>
+        <v>28085</v>
       </c>
       <c r="C12" t="str">
-        <v> KK</v>
+        <v>suki🍡</v>
+      </c>
+      <c r="D12" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E12" t="str">
+        <v>时尚穿搭|旅行探店|健身轻食|美食|家居生活</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/53a99808b4c4d653583a2f92</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>东莞市</v>
-      </c>
       <c r="B13">
-        <v>31</v>
+        <v>3966</v>
       </c>
       <c r="C13" t="str">
-        <v>🍴陳乎乎💤</v>
+        <v>逍遥</v>
+      </c>
+      <c r="D13" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E13" t="str">
+        <v>旅行探店|健康养生|美食</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5c7fd9bf00000000160236af</v>
       </c>
     </row>
     <row r="14">
@@ -528,514 +642,946 @@
         <v>厦门市</v>
       </c>
       <c r="B14">
-        <v>5872</v>
+        <v>2458</v>
       </c>
       <c r="C14" t="str">
-        <v>乐呵呵</v>
+        <v>A</v>
+      </c>
+      <c r="D14" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E14" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5daf4a9b000000000100a917</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>中山市</v>
+        <v>朝阳区</v>
       </c>
       <c r="B15">
-        <v>103438</v>
+        <v>111074</v>
       </c>
       <c r="C15" t="str">
-        <v>sayo 🍑</v>
+        <v>晚安姐姐</v>
+      </c>
+      <c r="D15" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E15" t="str">
+        <v>时尚穿搭|美食|家居生活</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ac0f1114eacab50a654ee8a</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>宿州市</v>
+        <v>沧州市</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>10883</v>
       </c>
       <c r="C16" t="str">
-        <v>张延凯娣</v>
+        <v>何佳慧</v>
+      </c>
+      <c r="D16" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E16" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5af6513d4eacab5219a28eac</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>朝阳区</v>
-      </c>
       <c r="B17">
-        <v>1369</v>
+        <v>10314</v>
       </c>
       <c r="C17" t="str">
-        <v>Ly、🍀</v>
+        <v>蒋林灼</v>
+      </c>
+      <c r="D17" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E17" t="str">
+        <v>旅行探店|美食</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5657e1e7a40e1822ea2fa9f7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>浦东新区</v>
+        <v>杭州市</v>
       </c>
       <c r="B18">
-        <v>324</v>
+        <v>18939</v>
       </c>
       <c r="C18" t="str">
-        <v>Wendy Jewelry</v>
+        <v>-柚子硬糖</v>
+      </c>
+      <c r="D18" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E18" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ee49343000000000100664f</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>广州市</v>
+        <v>杭州市</v>
       </c>
       <c r="B19">
-        <v>8204</v>
+        <v>13470</v>
       </c>
       <c r="C19" t="str">
-        <v>🍓pepi_momo</v>
+        <v>花儿对我笑</v>
+      </c>
+      <c r="D19" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E19" t="str">
+        <v>美妆护肤|时尚穿搭|家居生活</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5a9366024eacab428b6011bb</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>长春市</v>
+        <v>潮州市</v>
       </c>
       <c r="B20">
-        <v>15348</v>
+        <v>2106</v>
       </c>
       <c r="C20" t="str">
-        <v>佳琦</v>
+        <v>小Z*^_^*</v>
+      </c>
+      <c r="D20" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E20" t="str">
+        <v>时尚穿搭|母婴亲子|家居生活</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/593b36b533594a5e1baea21d</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>宁波市</v>
+        <v>铁岭市</v>
       </c>
       <c r="B21">
-        <v>937</v>
+        <v>15808</v>
       </c>
       <c r="C21" t="str">
-        <v>来一口可口可乐🥤</v>
+        <v>张媛</v>
+      </c>
+      <c r="D21" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E21" t="str">
+        <v>美妆护肤|家居生活</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5c7de0ea000000001200e163</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v>哈尔滨市</v>
+      </c>
       <c r="B22">
-        <v>0</v>
+        <v>2568</v>
       </c>
       <c r="C22" t="str">
-        <v>徐月</v>
+        <v>王岩</v>
+      </c>
+      <c r="D22" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E22" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店|健康养生|健身轻食|母婴亲子|美食|影视|家居生活</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/58d12bb482ec3959679f64a2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>成都市</v>
+        <v>潮州市</v>
       </c>
       <c r="B23">
-        <v>522</v>
+        <v>692</v>
       </c>
       <c r="C23" t="str">
-        <v>Lin.s</v>
+        <v>成春梅成春梅</v>
+      </c>
+      <c r="D23" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E23" t="str">
+        <v>美妆护肤|母婴亲子</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5b57db0af7e8b97687061436</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="str">
+        <v>濮阳市</v>
+      </c>
       <c r="B24">
-        <v>31</v>
+        <v>426</v>
       </c>
       <c r="C24" t="str">
-        <v>为零</v>
+        <v>笑笑</v>
+      </c>
+      <c r="D24" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E24" t="str">
+        <v>美妆护肤|健康养生|家居生活</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5f62dc680000000001006717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>佛山市</v>
+        <v>郑州市</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>1540</v>
       </c>
       <c r="C25" t="str">
-        <v>吃瓜少女小水晶</v>
+        <v>圆。。</v>
+      </c>
+      <c r="D25" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E25" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/58a9008f82ec396cae364d38</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="str">
+        <v>宁波市</v>
+      </c>
       <c r="B26">
-        <v>1106</v>
+        <v>2822</v>
       </c>
       <c r="C26" t="str">
-        <v>西西（早10晚8）</v>
+        <v>薛二。</v>
+      </c>
+      <c r="D26" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E26" t="str">
+        <v>美妆护肤|时尚穿搭|美食|家居生活</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ac8d97ce8ac2b671f19b831</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>开封市</v>
+        <v>厦门市</v>
       </c>
       <c r="B27">
-        <v>25231</v>
+        <v>11088</v>
       </c>
       <c r="C27" t="str">
-        <v>少女心</v>
+        <v>临含</v>
+      </c>
+      <c r="D27" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E27" t="str">
+        <v>美妆护肤|旅行探店|母婴亲子|家居生活</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/54b0ae85e779897899c4f09c</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>潮州市</v>
+        <v>深圳市</v>
       </c>
       <c r="B28">
-        <v>21083</v>
+        <v>1095</v>
       </c>
       <c r="C28" t="str">
-        <v>吴一一</v>
+        <v>Yao</v>
+      </c>
+      <c r="D28" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E28" t="str">
+        <v>家居生活</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5bcea8511b70480001f4cd69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>哈尔滨市</v>
+        <v>虹口区</v>
       </c>
       <c r="B29">
-        <v>1177</v>
+        <v>154</v>
       </c>
       <c r="C29" t="str">
-        <v>阿晶</v>
+        <v>agnęs</v>
+      </c>
+      <c r="D29" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E29" t="str">
+        <v>时尚穿搭|旅行探店|美食</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/55475487b203d97019c9264d</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>房山区</v>
-      </c>
       <c r="B30">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="C30" t="str">
-        <v>周qy</v>
+        <v>Circle</v>
+      </c>
+      <c r="D30" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E30" t="str">
+        <v>美妆护肤|时尚穿搭|美食</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/59467bcf50c4b45441f05693</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>广州市</v>
+        <v>深圳市</v>
       </c>
       <c r="B31">
-        <v>1012</v>
+        <v>17159</v>
       </c>
       <c r="C31" t="str">
-        <v>👸🏼阿嘘</v>
+        <v>火火很huobao</v>
+      </c>
+      <c r="D31" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E31" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店|母婴亲子</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/558fb57adc02d2715a64582a</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>东莞市</v>
+        <v>朝阳区</v>
       </c>
       <c r="B32">
-        <v>30153</v>
+        <v>1369</v>
       </c>
       <c r="C32" t="str">
-        <v>Cc🤡</v>
+        <v>Ly、🍀</v>
+      </c>
+      <c r="D32" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E32" t="str">
+        <v>美妆护肤|美食</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/596779ab82ec395e0deeccf6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>杭州市</v>
+        <v>浦东新区</v>
       </c>
       <c r="B33">
-        <v>2138</v>
+        <v>324</v>
       </c>
       <c r="C33" t="str">
-        <v>抠牙小妹</v>
+        <v>Wendy Jewelry</v>
+      </c>
+      <c r="D33" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E33" t="str">
+        <v>美妆护肤|旅行探店</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/565ba867cb35fb216b702837</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>深圳市</v>
+        <v>广州市</v>
       </c>
       <c r="B34">
-        <v>369</v>
+        <v>8204</v>
       </c>
       <c r="C34" t="str">
-        <v>小鱼儿</v>
+        <v>🍓pepi_momo</v>
+      </c>
+      <c r="D34" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E34" t="str">
+        <v>美妆护肤|家居生活</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ca381f6000000001102d460</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>朝阳区</v>
+        <v>长春市</v>
       </c>
       <c r="B35">
-        <v>64628</v>
+        <v>15348</v>
       </c>
       <c r="C35" t="str">
-        <v>于念慈</v>
+        <v>佳琦</v>
+      </c>
+      <c r="D35" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E35" t="str">
+        <v>美妆护肤|美食</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5a718799e8ac2b62cd571028</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>长沙市</v>
+        <v>宁波市</v>
       </c>
       <c r="B36">
-        <v>2226</v>
+        <v>937</v>
       </c>
       <c r="C36" t="str">
-        <v>学测星星ღヘ</v>
+        <v>来一口可口可乐🥤</v>
+      </c>
+      <c r="D36" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E36" t="str">
+        <v>美妆护肤|健身轻食|美食</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ab1daeae8ac2b39cb62d35c</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>大连市</v>
-      </c>
       <c r="B37">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C37" t="str">
-        <v>南歌</v>
+        <v>徐月</v>
+      </c>
+      <c r="D37" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E37" t="str">
+        <v>美妆护肤|时尚穿搭|美食</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5fc1f0b8000000000100145a</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>齐齐哈尔市</v>
+        <v>成都市</v>
       </c>
       <c r="B38">
-        <v>952</v>
+        <v>522</v>
       </c>
       <c r="C38" t="str">
-        <v>小桦奇</v>
+        <v>Lin.s</v>
+      </c>
+      <c r="D38" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E38" t="str">
+        <v>美妆护肤|旅行探店|美食</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/59f1ec47e8ac2b547303e133</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>马鞍山市</v>
-      </c>
       <c r="B39">
-        <v>1381</v>
+        <v>31</v>
       </c>
       <c r="C39" t="str">
-        <v> 🍃</v>
+        <v>为零</v>
+      </c>
+      <c r="D39" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E39" t="str">
+        <v>美妆护肤|母婴亲子|家居生活</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/55be04885894466a67914070</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>广州市</v>
+        <v>佛山市</v>
       </c>
       <c r="B40">
-        <v>1072</v>
+        <v>69</v>
       </c>
       <c r="C40" t="str">
-        <v> （</v>
+        <v>吃瓜少女小水晶</v>
+      </c>
+      <c r="D40" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E40" t="str">
+        <v>时尚穿搭|旅行探店|美食</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/567b5bb34476082688a2ca3a</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
-        <v>武汉市</v>
-      </c>
       <c r="B41">
-        <v>107</v>
+        <v>1106</v>
       </c>
       <c r="C41" t="str">
-        <v>啊啊啊啊牛啊</v>
+        <v>西西（早10晚8）</v>
+      </c>
+      <c r="D41" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E41" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5d94a088000000000100bf14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>成都市</v>
+        <v>开封市</v>
       </c>
       <c r="B42">
-        <v>28085</v>
+        <v>25231</v>
       </c>
       <c r="C42" t="str">
-        <v>suki🍡</v>
+        <v>少女心</v>
+      </c>
+      <c r="D42" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E42" t="str">
+        <v>母婴亲子</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5acb43f4e8ac2b057eb48bb5</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="str">
+        <v>潮州市</v>
+      </c>
       <c r="B43">
-        <v>3966</v>
+        <v>21083</v>
       </c>
       <c r="C43" t="str">
-        <v>逍遥</v>
+        <v>吴一一</v>
+      </c>
+      <c r="D43" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E43" t="str">
+        <v>美妆护肤|健康养生|美食</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5bd7afec74d2060001ff172b</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>厦门市</v>
+        <v>哈尔滨市</v>
       </c>
       <c r="B44">
-        <v>2458</v>
+        <v>1177</v>
       </c>
       <c r="C44" t="str">
-        <v>A</v>
+        <v>阿晶</v>
+      </c>
+      <c r="D44" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E44" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5c26fa4900000000060162cd</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>朝阳区</v>
+        <v>房山区</v>
       </c>
       <c r="B45">
-        <v>111074</v>
+        <v>218</v>
       </c>
       <c r="C45" t="str">
-        <v>晚安姐姐</v>
+        <v>周qy</v>
+      </c>
+      <c r="D45" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E45" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5aa24ad411be107f50c7ac33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>沧州市</v>
+        <v>广州市</v>
       </c>
       <c r="B46">
-        <v>10883</v>
+        <v>1012</v>
       </c>
       <c r="C46" t="str">
-        <v>何佳慧</v>
+        <v>👸🏼阿嘘</v>
+      </c>
+      <c r="D46" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E46" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/56a61344e4251d659558cc0d</v>
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="str">
+        <v>西安市</v>
+      </c>
       <c r="B47">
-        <v>10314</v>
+        <v>180</v>
       </c>
       <c r="C47" t="str">
-        <v>蒋林灼</v>
+        <v>小张胖了</v>
+      </c>
+      <c r="D47" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E47" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5b1b238be8ac2b351726c5af</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>杭州市</v>
+        <v>成都市</v>
       </c>
       <c r="B48">
-        <v>18939</v>
+        <v>0</v>
       </c>
       <c r="C48" t="str">
-        <v>-柚子硬糖</v>
+        <v>Double</v>
+      </c>
+      <c r="D48" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E48" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5cdfcec9000000001102b6bd</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>杭州市</v>
+        <v>佛山市</v>
       </c>
       <c r="B49">
-        <v>13470</v>
+        <v>0</v>
       </c>
       <c r="C49" t="str">
-        <v>花儿对我笑</v>
+        <v>4064转依浪依</v>
+      </c>
+      <c r="D49" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E49" t="str">
+        <v>美妆护肤|时尚穿搭</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ca5d8e7000000001102bab5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>潮州市</v>
+        <v>牡丹江市</v>
       </c>
       <c r="B50">
-        <v>2106</v>
+        <v>8306</v>
       </c>
       <c r="C50" t="str">
-        <v>小Z*^_^*</v>
+        <v>怕生的猫</v>
+      </c>
+      <c r="D50" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E50" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5b41eabbe8ac2b12ec75ef9c</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>铁岭市</v>
-      </c>
       <c r="B51">
-        <v>15808</v>
+        <v>12680</v>
       </c>
       <c r="C51" t="str">
-        <v>张媛</v>
+        <v>蹄仔🦕</v>
+      </c>
+      <c r="D51" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E51" t="str">
+        <v>时尚穿搭|旅行探店|美食</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/57897c286a6a69455c8df7ae</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>哈尔滨市</v>
+        <v>广州市</v>
       </c>
       <c r="B52">
-        <v>2568</v>
+        <v>323</v>
       </c>
       <c r="C52" t="str">
-        <v>王岩</v>
+        <v>朝歌行</v>
+      </c>
+      <c r="D52" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E52" t="str">
+        <v>美妆护肤|旅行探店|健身轻食</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ecb89d4000000000100073d</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>潮州市</v>
+        <v>河东区</v>
       </c>
       <c r="B53">
-        <v>692</v>
+        <v>4612</v>
       </c>
       <c r="C53" t="str">
-        <v>成春梅成春梅</v>
+        <v>齐璐</v>
+      </c>
+      <c r="D53" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E53" t="str">
+        <v>母婴亲子</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5a6869e9e8ac2b0ab399c6b8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>濮阳市</v>
+        <v>闵行区</v>
       </c>
       <c r="B54">
-        <v>426</v>
+        <v>10246</v>
       </c>
       <c r="C54" t="str">
-        <v>笑笑</v>
+        <v>光长肉了啊</v>
+      </c>
+      <c r="D54" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E54" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5715c8e24775a7796649a1c6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>郑州市</v>
+        <v>南京市</v>
       </c>
       <c r="B55">
-        <v>1540</v>
+        <v>1577</v>
       </c>
       <c r="C55" t="str">
-        <v>圆。。</v>
+        <v>木南</v>
+      </c>
+      <c r="D55" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E55" t="str">
+        <v>母婴亲子</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/559780a93397db55b69f8e34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>宁波市</v>
+        <v>通州区</v>
       </c>
       <c r="B56">
-        <v>2822</v>
+        <v>465</v>
       </c>
       <c r="C56" t="str">
-        <v>薛二。</v>
+        <v>住在124号菠萝屋</v>
+      </c>
+      <c r="D56" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E56" t="str">
+        <v>美妆护肤|健康养生|美食</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ba6764e6574cf0001784057</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>厦门市</v>
+        <v>黄浦区</v>
       </c>
       <c r="B57">
-        <v>11088</v>
+        <v>119064</v>
       </c>
       <c r="C57" t="str">
-        <v>临含</v>
+        <v> KK</v>
+      </c>
+      <c r="D57" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E57" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ee0f1b60000000001003a37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>深圳市</v>
+        <v>东莞市</v>
       </c>
       <c r="B58">
-        <v>1095</v>
+        <v>31</v>
       </c>
       <c r="C58" t="str">
-        <v>Yao</v>
+        <v>🍴陳乎乎💤</v>
+      </c>
+      <c r="D58" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E58" t="str">
+        <v>美妆护肤</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/588db2c782ec39016902b61b</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>虹口区</v>
+        <v>厦门市</v>
       </c>
       <c r="B59">
-        <v>154</v>
+        <v>5872</v>
       </c>
       <c r="C59" t="str">
-        <v>agnęs</v>
+        <v>乐呵呵</v>
+      </c>
+      <c r="D59" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E59" t="str">
+        <v>美食</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ac5addcf7e8b9046b5fe003</v>
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="str">
+        <v>中山市</v>
+      </c>
       <c r="B60">
-        <v>271</v>
+        <v>103438</v>
       </c>
       <c r="C60" t="str">
-        <v>Circle</v>
+        <v>sayo 🍑</v>
+      </c>
+      <c r="D60" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E60" t="str">
+        <v>美妆护肤|时尚穿搭|旅行探店</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/593e21a450c4b47dfc0c3a2b</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>深圳市</v>
+        <v>宿州市</v>
       </c>
       <c r="B61">
-        <v>17159</v>
+        <v>2</v>
       </c>
       <c r="C61" t="str">
-        <v>火火很huobao</v>
+        <v>张延凯娣</v>
+      </c>
+      <c r="D61" t="str">
+        <v>红人主播</v>
+      </c>
+      <c r="E61" t="str">
+        <v>美妆护肤|时尚穿搭|美食</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://www.xiaohongshu.com/user/profile/5ab7d9c811be106693542883</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F61"/>
   </ignoredErrors>
 </worksheet>
 </file>